--- a/biology/Médecine/Injection_intravitréenne/Injection_intravitréenne.xlsx
+++ b/biology/Médecine/Injection_intravitréenne/Injection_intravitréenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Injection_intravitr%C3%A9enne</t>
+          <t>Injection_intravitréenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une injection intravitréenne (ou IVT) est une procédure médicale consistant à injecter un agent pharmacologique dans le corps vitré, en arrière de la rétine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une injection intravitréenne (ou IVT) est une procédure médicale consistant à injecter un agent pharmacologique dans le corps vitré, en arrière de la rétine.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Injection_intravitr%C3%A9enne</t>
+          <t>Injection_intravitréenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Produits injectés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les produits pouvant être injectés dans le corps vitré sont, par ordre de fréquence :
-les anti-VEGF (anti-vascular epithelial groth factor) : ranibizumab, abflibercept et bevacizumab[2] ;
-les corticoïdes : dexamethasone, flucitasone[3] ;
-les antibiotiques : vancomycine, ceftazidime, etc.[4]</t>
+les anti-VEGF (anti-vascular epithelial groth factor) : ranibizumab, abflibercept et bevacizumab ;
+les corticoïdes : dexamethasone, flucitasone ;
+les antibiotiques : vancomycine, ceftazidime, etc.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Injection_intravitr%C3%A9enne</t>
+          <t>Injection_intravitréenne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Pathologies traitées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les IVT sont le traitement de référence des pathologies suivantes :
 la DMLA humide ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Injection_intravitr%C3%A9enne</t>
+          <t>Injection_intravitréenne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Procédure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La procédure se déroule sous anesthésie locale, au cabinet ou à la clinique. Il n'y a pas besoin d'être à jeun ni de consulter un anesthésiste[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La procédure se déroule sous anesthésie locale, au cabinet ou à la clinique. Il n'y a pas besoin d'être à jeun ni de consulter un anesthésiste.
 Elle consiste en les étapes suivantes :
 anesthésie locale par gouttes d'oxybuprocaïne ou de tétracaïne ;
 double désinfection à la bétadine ophtalmique ;
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Injection_intravitr%C3%A9enne</t>
+          <t>Injection_intravitréenne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,10 +635,12 @@
           <t>Effets indésirables et complications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut discerner les effets indésirables, qui sont des désagréments bénins et réversibles, des complications. Ainsi pour les effets indésirables, il faut retenir : l'hémorragie sous-conjonctivale (HSC), la rougeur oculaire, les corps flottants (myodésopsies) et le prurit.
-Les complications vraies sont, par ordre de gravité : l'endophtalmie, infection grave de l'œil[6] ; le décollement de rétine [7], la cataracte traumatique.
+Les complications vraies sont, par ordre de gravité : l'endophtalmie, infection grave de l'œil ; le décollement de rétine , la cataracte traumatique.
 </t>
         </is>
       </c>
